--- a/python/excel_export/excel-test.xlsx
+++ b/python/excel_export/excel-test.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="564" windowWidth="19680" windowHeight="7572" activeTab="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Report</t>
   </si>
@@ -26,49 +27,40 @@
     <t>Batch 1</t>
   </si>
   <si>
-    <t>Batch 2</t>
+    <t>longgggg111data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="맑은 고딕"/>
+      <b val="1"/>
       <sz val="15"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="00DDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -82,292 +74,201 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="112"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="12"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Line Chart Title</a:t>
             </a:r>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Data!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$B$3:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>Data!$B$3:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Data!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$C$3:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="199499264"/>
-        <c:axId val="196917440"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="199499264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>Data!$C$3:$C$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>X_title</a:t>
                 </a:r>
               </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196917440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="196917440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Y_title</a:t>
                 </a:r>
               </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199499264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,116 +555,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="7"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="n">
         <v>42248</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="n">
         <v>42249</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="n">
         <v>42250</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="n">
         <v>42251</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="n">
         <v>42252</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>35</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="n">
         <v>42253</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/python/excel_export/excel-test.xlsx
+++ b/python/excel_export/excel-test.xlsx
@@ -130,7 +130,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>Data!B2</f>
+              <f>Data!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -149,9 +149,14 @@
               </a:ln>
             </spPr>
           </marker>
+          <cat>
+            <numRef>
+              <f>Data!$A$2:$A$8</f>
+            </numRef>
+          </cat>
           <val>
             <numRef>
-              <f>Data!$B$3:$B$8</f>
+              <f>Data!$B$2:$B$8</f>
             </numRef>
           </val>
         </ser>
@@ -160,7 +165,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>Data!C2</f>
+              <f>Data!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -179,17 +184,22 @@
               </a:ln>
             </spPr>
           </marker>
+          <cat>
+            <numRef>
+              <f>Data!$A$2:$A$8</f>
+            </numRef>
+          </cat>
           <val>
             <numRef>
-              <f>Data!$C$3:$C$8</f>
+              <f>Data!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
-        <axId val="10"/>
+        <axId val="500"/>
         <axId val="100"/>
       </lineChart>
-      <catAx>
-        <axId val="10"/>
+      <dateAx>
+        <axId val="500"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -206,11 +216,12 @@
             </rich>
           </tx>
         </title>
+        <numFmt formatCode="YY-mm-dd" sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
+        <majorTimeUnit val="days"/>
+      </dateAx>
       <valAx>
         <axId val="100"/>
         <scaling>
@@ -232,7 +243,7 @@
         </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <crossAx val="10"/>
+        <crossAx val="500"/>
       </valAx>
     </plotArea>
     <legend>
@@ -620,6 +631,9 @@
       <c r="B2" t="n">
         <v>40</v>
       </c>
+      <c r="C2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="n">
@@ -628,6 +642,9 @@
       <c r="B3" t="n">
         <v>40</v>
       </c>
+      <c r="C3" t="n">
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="n">
@@ -636,6 +653,9 @@
       <c r="B4" t="n">
         <v>50</v>
       </c>
+      <c r="C4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="n">
@@ -644,6 +664,9 @@
       <c r="B5" t="n">
         <v>30</v>
       </c>
+      <c r="C5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="n">
@@ -659,6 +682,9 @@
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="n">
         <v>42253</v>
+      </c>
+      <c r="B7" t="n">
+        <v/>
       </c>
       <c r="C7" t="n">
         <v>40</v>

--- a/python/excel_export/excel-test.xlsx
+++ b/python/excel_export/excel-test.xlsx
@@ -151,7 +151,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>Data!$A$2:$A$8</f>
+              <f>Data!$A$1:$A$8</f>
             </numRef>
           </cat>
           <val>
@@ -186,7 +186,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>Data!$A$2:$A$8</f>
+              <f>Data!$A$1:$A$8</f>
             </numRef>
           </cat>
           <val>
@@ -210,7 +210,7 @@
               <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
               <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:r>
-                  <a:t>X_title</a:t>
+                  <a:t>date</a:t>
                 </a:r>
               </a:p>
             </rich>
